--- a/biology/Botanique/Emmenosperma_pancherianum/Emmenosperma_pancherianum.xlsx
+++ b/biology/Botanique/Emmenosperma_pancherianum/Emmenosperma_pancherianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emmenosperma pancherianum est une espèce de plantes à fleurs de la famille des Rhamnaceae endémique de la forêt sclérophylle en Nouvelle-Calédonie[1]. C'est la seule espèce du genre Emmenosperma. L'espèce a été découverte en Australie récemment et devrait perdre son statut d'endémique[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmenosperma pancherianum est une espèce de plantes à fleurs de la famille des Rhamnaceae endémique de la forêt sclérophylle en Nouvelle-Calédonie. C'est la seule espèce du genre Emmenosperma. L'espèce a été découverte en Australie récemment et devrait perdre son statut d'endémique.
 </t>
         </is>
       </c>
@@ -513,18 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dimensions
-Emmenosperma pancherianum mesure au maximum 3 mètres de haut et fait le plus souvent autour de 1,5 mètre[3].
-Port
-Cette plante est un arbrisseau au branchage très ramifié [3] puis un petit arbuste voir un petit arbre avec l'âge.
-Feuilles
-Les feuilles sont petites (5 cm de long) et de forme bien arrondie. Elles sont de couleur vert foncé et sont vernissées sur le dessus. Elles sont épaisses et dures. Leur position sur les branches n’est pas symétrique, ce qui donne un aspect touffu à la plante[3].
-Fleurs
-Les fleurs sont petites, blanches et passent facilement inaperçues[3].
-Fruits
-Les fruits sont petits et allongés (4 mm de long sur 3 mm de large). Ils ont une couleur rouge vif brillant et sont comme suspendus au bout d’un long pédicelle[3]. On lui a donné le nom de 'houx calédonien' de ce fait.
-Écorce
-L'écorce est de couleur brun clair et se décape légèrement en surface par petits lambeaux[3].
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmenosperma pancherianum mesure au maximum 3 mètres de haut et fait le plus souvent autour de 1,5 mètre.
 </t>
         </is>
       </c>
@@ -550,13 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce peut être trouvée en forêt sèche et en forêt côtière[1] sur l'îlot Leprédour, sur la Pointe Maa, ainsi qu'en populations réduites dans la région de Nouméa (Ducos, Ouen Toro, Montravel, Nouville, Tina), à Deva, Pindaï, Nékoro, ainsi qu'à Koumac en bord de mer[3]. On la trouve jusqu'à 300 m d'altitude[1].
-Largement concentrée sur la région de Nouméa, cette espèce demeure sous la menace de l'urbanisation de cette zone[3]. L'UICN estime qu'autrefois, elle devait longer la côte ouest de la Grande Terre sans discontinuer[1].
+          <t>Port</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est un arbrisseau au branchage très ramifié  puis un petit arbuste voir un petit arbre avec l'âge.
 </t>
         </is>
       </c>
@@ -582,12 +594,196 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont petites (5 cm de long) et de forme bien arrondie. Elles sont de couleur vert foncé et sont vernissées sur le dessus. Elles sont épaisses et dures. Leur position sur les branches n’est pas symétrique, ce qui donne un aspect touffu à la plante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Emmenosperma_pancherianum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmenosperma_pancherianum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont petites, blanches et passent facilement inaperçues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Emmenosperma_pancherianum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmenosperma_pancherianum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont petits et allongés (4 mm de long sur 3 mm de large). Ils ont une couleur rouge vif brillant et sont comme suspendus au bout d’un long pédicelle. On lui a donné le nom de 'houx calédonien' de ce fait.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Emmenosperma_pancherianum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmenosperma_pancherianum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Écorce</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce est de couleur brun clair et se décape légèrement en surface par petits lambeaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Emmenosperma_pancherianum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmenosperma_pancherianum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce peut être trouvée en forêt sèche et en forêt côtière sur l'îlot Leprédour, sur la Pointe Maa, ainsi qu'en populations réduites dans la région de Nouméa (Ducos, Ouen Toro, Montravel, Nouville, Tina), à Deva, Pindaï, Nékoro, ainsi qu'à Koumac en bord de mer. On la trouve jusqu'à 300 m d'altitude.
+Largement concentrée sur la région de Nouméa, cette espèce demeure sous la menace de l'urbanisation de cette zone. L'UICN estime qu'autrefois, elle devait longer la côte ouest de la Grande Terre sans discontinuer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Emmenosperma_pancherianum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emmenosperma_pancherianum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 1998, l'espèce est considérée comme vulnérable par l'UICN[1].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1998, l'espèce est considérée comme vulnérable par l'UICN.
 </t>
         </is>
       </c>
